--- a/public/documents portfolio/Copie de 8 - BTS SIO - Annexe 8-1 - Tableau de synthŠse - Epreuve E4 - BTS SIO 2024.xlsx
+++ b/public/documents portfolio/Copie de 8 - BTS SIO - Annexe 8-1 - Tableau de synthŠse - Epreuve E4 - BTS SIO 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nael.haddadi\Downloads\documents portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\portfolio\public\documents portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AA81A9-FF4E-4C8D-91C6-6A560259E99F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555B4AAE-C2CF-4668-B5DC-82964AB44ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -116,18 +116,9 @@
     <t>SESSION 2025</t>
   </si>
   <si>
-    <t>Recettes d'application</t>
-  </si>
-  <si>
-    <t>Recettes d'application (création de cas de tests, et tests)</t>
-  </si>
-  <si>
     <t>Gestion des incidents</t>
   </si>
   <si>
-    <t>Développement du site MarieTeam</t>
-  </si>
-  <si>
     <t>Développement d'une application servant à centraliser les tâches de l'équipe</t>
   </si>
   <si>
@@ -140,43 +131,34 @@
     <t>Adresse URL du portfolio :https://nael-haddadi.vercel.app</t>
   </si>
   <si>
-    <t xml:space="preserve">Mise en place d'un GitHub commun </t>
-  </si>
-  <si>
-    <t>Planification et gestion de projet</t>
-  </si>
-  <si>
     <t>09/24 - 2025</t>
   </si>
   <si>
     <t>09/23 - 2025</t>
   </si>
   <si>
-    <t>Developpement du portfolio web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Veille technologique </t>
-  </si>
-  <si>
-    <t>Planification et Développement d'une application servant à centraliser les tâches de l'équipe</t>
-  </si>
-  <si>
     <t>Mise en place d'un GLPI</t>
   </si>
   <si>
-    <t>Réalisations de maquette</t>
-  </si>
-  <si>
-    <t>10/23-12/23</t>
-  </si>
-  <si>
-    <t>09/24 - 12/24</t>
-  </si>
-  <si>
-    <t>Réalisation de procédures</t>
-  </si>
-  <si>
-    <t>01/24-01/25</t>
+    <t>Projet MarieTeam</t>
+  </si>
+  <si>
+    <t>01/24-08/25</t>
+  </si>
+  <si>
+    <t>Recettes de deux applications critiques du CHU</t>
+  </si>
+  <si>
+    <t>Planification d'une application servant à centraliser les tâches de l'équipe</t>
+  </si>
+  <si>
+    <t>Réalisation de procédures pour les incidents</t>
+  </si>
+  <si>
+    <t>09/23 - 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projet Portfolio </t>
   </si>
 </sst>
 </file>
@@ -186,7 +168,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -244,11 +226,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Arial"/>
@@ -268,18 +245,44 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +295,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -684,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -692,13 +701,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -707,28 +716,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -737,37 +740,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -776,28 +770,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -809,10 +827,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -824,32 +842,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -870,9 +905,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -910,9 +945,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -945,26 +980,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -997,26 +1015,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1195,8 +1196,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1209,83 +1210,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="53" t="s">
+      <c r="A3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="54"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="36"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="16" t="s">
+      <c r="A4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
+      <c r="A5" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1308,8 +1309,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1365,16 +1366,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1412,18 +1413,18 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="20"/>
+      <c r="A9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="17"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1462,17 +1463,17 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
+        <v>31</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="17"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1510,18 +1511,18 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="A11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="25"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1558,166 +1559,150 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="30"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-      <c r="AF12"/>
-      <c r="AG12"/>
-      <c r="AH12"/>
-      <c r="AI12"/>
-      <c r="AJ12"/>
-      <c r="AK12"/>
-      <c r="AL12"/>
-      <c r="AM12"/>
-      <c r="AN12"/>
-      <c r="AO12"/>
-      <c r="AP12"/>
-      <c r="AQ12"/>
-    </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="30"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-      <c r="AF13"/>
-      <c r="AG13"/>
-      <c r="AH13"/>
-      <c r="AI13"/>
-      <c r="AJ13"/>
-      <c r="AK13"/>
-      <c r="AL13"/>
-      <c r="AM13"/>
-      <c r="AN13"/>
-      <c r="AO13"/>
-      <c r="AP13"/>
-      <c r="AQ13"/>
-    </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="20"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-      <c r="AE14"/>
-      <c r="AF14"/>
-      <c r="AG14"/>
-      <c r="AH14"/>
-      <c r="AI14"/>
-      <c r="AJ14"/>
-      <c r="AK14"/>
-      <c r="AL14"/>
-      <c r="AM14"/>
-      <c r="AN14"/>
-      <c r="AO14"/>
-      <c r="AP14"/>
-      <c r="AQ14"/>
+    <row r="12" spans="1:43" s="56" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="55"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="55"/>
+      <c r="AI12" s="55"/>
+      <c r="AJ12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="55"/>
+    </row>
+    <row r="13" spans="1:43" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="59"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="63"/>
+      <c r="AI13" s="63"/>
+      <c r="AJ13" s="63"/>
+      <c r="AK13" s="63"/>
+      <c r="AL13" s="63"/>
+      <c r="AM13" s="63"/>
+      <c r="AN13" s="63"/>
+      <c r="AO13" s="63"/>
+      <c r="AP13" s="63"/>
+      <c r="AQ13" s="63"/>
+    </row>
+    <row r="14" spans="1:43" s="56" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="57"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="55"/>
+      <c r="AF14" s="55"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="55"/>
+      <c r="AI14" s="55"/>
+      <c r="AJ14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="55"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1755,14 +1740,14 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1800,14 +1785,14 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1845,14 +1830,14 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="20"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1890,16 +1875,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1937,18 +1922,18 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="20"/>
+      <c r="A20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="17"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1986,18 +1971,18 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
+      <c r="A21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -2035,18 +2020,18 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="20"/>
+      <c r="B22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="17"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2084,18 +2069,18 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+      <c r="A23" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2133,18 +2118,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2182,14 +2163,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2227,14 +2208,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2272,16 +2253,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2319,18 +2300,18 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="20"/>
+      <c r="A28" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="17"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2368,18 +2349,18 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="20"/>
+      <c r="A29" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2417,18 +2398,18 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="20"/>
+      <c r="A30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="24"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="17"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2466,14 +2447,18 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="A31" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2511,14 +2496,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2556,14 +2541,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2601,14 +2586,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2738,11 +2723,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2750,6 +2730,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/documents portfolio/Copie de 8 - BTS SIO - Annexe 8-1 - Tableau de synthŠse - Epreuve E4 - BTS SIO 2024.xlsx
+++ b/public/documents portfolio/Copie de 8 - BTS SIO - Annexe 8-1 - Tableau de synthŠse - Epreuve E4 - BTS SIO 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\portfolio\public\documents portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555B4AAE-C2CF-4668-B5DC-82964AB44ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D6AE7F-6B00-40F3-966C-7D1D72729507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Gestion des incidents</t>
   </si>
   <si>
-    <t>Développement d'une application servant à centraliser les tâches de l'équipe</t>
-  </si>
-  <si>
     <t>NOM et prénom : HADDADI Nael</t>
   </si>
   <si>
@@ -143,22 +140,19 @@
     <t>Projet MarieTeam</t>
   </si>
   <si>
-    <t>01/24-08/25</t>
-  </si>
-  <si>
     <t>Recettes de deux applications critiques du CHU</t>
   </si>
   <si>
-    <t>Planification d'une application servant à centraliser les tâches de l'équipe</t>
-  </si>
-  <si>
-    <t>Réalisation de procédures pour les incidents</t>
-  </si>
-  <si>
     <t>09/23 - 2024</t>
   </si>
   <si>
     <t xml:space="preserve">Projet Portfolio </t>
+  </si>
+  <si>
+    <t>Projet de Pentesting</t>
+  </si>
+  <si>
+    <t>Projet Planiftâches</t>
   </si>
 </sst>
 </file>
@@ -693,7 +687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -776,72 +770,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -885,6 +813,75 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1196,8 +1193,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1210,56 +1207,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="35" t="s">
+      <c r="A3" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="66"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="A4" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1271,22 +1268,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="54" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1309,8 +1306,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1366,16 +1363,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1414,12 +1411,12 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="50"/>
+        <v>28</v>
+      </c>
+      <c r="C9" s="28"/>
       <c r="D9" s="16"/>
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
@@ -1463,10 +1460,10 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="24"/>
@@ -1512,16 +1509,16 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="16"/>
-      <c r="G11" s="65"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="25"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1559,140 +1556,144 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="56" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
-      <c r="AE12" s="55"/>
-      <c r="AF12" s="55"/>
-      <c r="AG12" s="55"/>
-      <c r="AH12" s="55"/>
-      <c r="AI12" s="55"/>
-      <c r="AJ12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AO12" s="55"/>
-      <c r="AP12" s="55"/>
-      <c r="AQ12" s="55"/>
-    </row>
-    <row r="13" spans="1:43" s="64" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="63"/>
-      <c r="R13" s="63"/>
-      <c r="S13" s="63"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="63"/>
-      <c r="AD13" s="63"/>
-      <c r="AE13" s="63"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="63"/>
-      <c r="AJ13" s="63"/>
-      <c r="AK13" s="63"/>
-      <c r="AL13" s="63"/>
-      <c r="AM13" s="63"/>
-      <c r="AN13" s="63"/>
-      <c r="AO13" s="63"/>
-      <c r="AP13" s="63"/>
-      <c r="AQ13" s="63"/>
-    </row>
-    <row r="14" spans="1:43" s="56" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="57"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="55"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="55"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="55"/>
-      <c r="AE14" s="55"/>
-      <c r="AF14" s="55"/>
-      <c r="AG14" s="55"/>
-      <c r="AH14" s="55"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
+    <row r="12" spans="1:43" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="44">
+        <v>45261</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="33"/>
+    </row>
+    <row r="13" spans="1:43" s="42" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="41"/>
+      <c r="AJ13" s="41"/>
+      <c r="AK13" s="41"/>
+      <c r="AL13" s="41"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="41"/>
+      <c r="AO13" s="41"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="41"/>
+    </row>
+    <row r="14" spans="1:43" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="33"/>
+      <c r="AI14" s="33"/>
+      <c r="AJ14" s="33"/>
+      <c r="AK14" s="33"/>
+      <c r="AL14" s="33"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="33"/>
+      <c r="AO14" s="33"/>
+      <c r="AP14" s="33"/>
+      <c r="AQ14" s="33"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
@@ -1875,16 +1876,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1923,13 +1924,13 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="24"/>
@@ -1975,9 +1976,9 @@
         <v>24</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2021,13 +2022,13 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="D22" s="29"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -2069,14 +2070,10 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>33</v>
-      </c>
+      <c r="A23" s="26"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="24"/>
+      <c r="D23" s="29"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -2121,7 +2118,7 @@
       <c r="A24" s="26"/>
       <c r="B24" s="22"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="24"/>
+      <c r="D24" s="29"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -2253,16 +2250,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2301,13 +2298,13 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="24"/>
@@ -2353,7 +2350,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="24"/>
@@ -2399,15 +2396,15 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="65"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="43"/>
       <c r="G30" s="24"/>
       <c r="H30" s="17"/>
       <c r="I30"/>
@@ -2446,54 +2443,50 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
+    <row r="31" spans="1:43" s="34" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="33"/>
+      <c r="AH31" s="33"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="33"/>
+      <c r="AL31" s="33"/>
+      <c r="AM31" s="33"/>
+      <c r="AN31" s="33"/>
+      <c r="AO31" s="33"/>
+      <c r="AP31" s="33"/>
+      <c r="AQ31" s="33"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
@@ -2723,6 +2716,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2730,11 +2728,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/documents portfolio/Copie de 8 - BTS SIO - Annexe 8-1 - Tableau de synthŠse - Epreuve E4 - BTS SIO 2024.xlsx
+++ b/public/documents portfolio/Copie de 8 - BTS SIO - Annexe 8-1 - Tableau de synthŠse - Epreuve E4 - BTS SIO 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\portfolio\public\documents portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D6AE7F-6B00-40F3-966C-7D1D72729507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041B4EF9-6C19-4FA0-AF7D-5FF2F2048B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -817,15 +817,39 @@
     <xf numFmtId="17" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -857,30 +881,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1193,8 +1193,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1207,56 +1207,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="47"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="65" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="66"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="53"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1268,22 +1268,22 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="62" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1306,8 +1306,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="55"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
@@ -1363,16 +1363,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1876,16 +1876,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="51" t="s">
+      <c r="A19" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -2027,7 +2027,7 @@
       <c r="B22" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="29"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
@@ -2250,16 +2250,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="61"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2352,7 +2352,7 @@
       <c r="B29" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="16"/>
-      <c r="E30" s="29"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="43"/>
       <c r="G30" s="24"/>
       <c r="H30" s="17"/>
@@ -2716,11 +2716,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2728,6 +2723,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
